--- a/exceltemplate/测试用例模板.xlsx
+++ b/exceltemplate/测试用例模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="用例工作表" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -395,11 +395,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,7 +432,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,16 +485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,14 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,52 +522,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -568,19 +568,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,157 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,11 +867,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,17 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,7 +936,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,21 +955,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -963,10 +963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -975,16 +975,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -996,112 +996,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,20 +1531,20 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.3796296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.8796296296296" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.1296296296296" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="10.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="11.6296296296296" customWidth="1"/>
+    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="13.1296296296296" customWidth="1"/>
     <col min="13" max="13" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1626,7 +1626,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" ht="40.5" outlineLevel="1" spans="1:12">
+    <row r="4" ht="43.2" outlineLevel="1" spans="1:12">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" ht="40.5" outlineLevel="1" spans="1:12">
+    <row r="5" ht="43.2" outlineLevel="1" spans="1:12">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" ht="40.5" outlineLevel="1" spans="1:12">
+    <row r="7" ht="43.2" outlineLevel="1" spans="1:12">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" ht="40.5" outlineLevel="1" spans="1:12">
+    <row r="8" ht="43.2" outlineLevel="1" spans="1:12">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1795,22 +1795,22 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.25" style="12" customWidth="1"/>
-    <col min="2" max="5" width="14.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="12" customWidth="1"/>
+    <col min="2" max="5" width="14.1296296296296" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.3796296296296" style="12" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="12" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="12" customWidth="1"/>
     <col min="9" max="9" width="37.25" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="16.8796296296296" style="12" customWidth="1"/>
     <col min="11" max="11" width="21.75" style="12" customWidth="1"/>
     <col min="12" max="16" width="14.25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="30.875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="65.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="30.8796296296296" style="12" customWidth="1"/>
+    <col min="18" max="18" width="65.3796296296296" style="12" customWidth="1"/>
     <col min="26" max="26" width="7.5" customWidth="1"/>
-    <col min="27" max="27" width="8.375" customWidth="1"/>
-    <col min="28" max="28" width="10.125" customWidth="1"/>
+    <col min="27" max="27" width="8.37962962962963" customWidth="1"/>
+    <col min="28" max="28" width="10.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:18">
@@ -2329,7 +2329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="27:27">
+    <row r="17" ht="15.6" spans="27:27">
       <c r="AA17" s="18" t="s">
         <v>85</v>
       </c>
@@ -2339,17 +2339,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" ht="42.75" spans="27:27">
+    <row r="19" ht="46.8" spans="27:27">
       <c r="AA19" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="27:27">
+    <row r="20" ht="13.5" customHeight="1" spans="27:27">
       <c r="AA20" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" ht="42.75" spans="27:27">
+    <row r="21" ht="46.8" spans="27:27">
       <c r="AA21" s="18" t="s">
         <v>102</v>
       </c>
@@ -2404,21 +2404,21 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="20.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6296296296296" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="20.6296296296296" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.6296296296296" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6296296296296" style="2" customWidth="1"/>
     <col min="14" max="14" width="19.75" style="2" customWidth="1"/>
-    <col min="15" max="16" width="19.625" customWidth="1"/>
+    <col min="15" max="16" width="19.6296296296296" customWidth="1"/>
     <col min="17" max="17" width="33.5" customWidth="1"/>
-    <col min="18" max="18" width="27.875" customWidth="1"/>
+    <col min="18" max="18" width="27.8796296296296" customWidth="1"/>
     <col min="27" max="27" width="21.25" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="9" hidden="1" customWidth="1"/>
   </cols>
@@ -2544,7 +2544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:28">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:28">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2634,7 +2634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:28">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:28">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2789,7 +2789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:27">
+    <row r="12" ht="31.2" spans="1:27">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2808,47 +2808,47 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="27:27">
+    <row r="13" ht="15.6" spans="27:27">
       <c r="AA13" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="27:27">
+    <row r="14" ht="15.6" spans="27:27">
       <c r="AA14" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="27:27">
+    <row r="15" ht="15.6" spans="27:27">
       <c r="AA15" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="27:27">
+    <row r="16" ht="15.6" spans="27:27">
       <c r="AA16" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="27:27">
+    <row r="17" ht="15.6" spans="27:27">
       <c r="AA17" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="27:27">
+    <row r="18" ht="15.6" spans="27:27">
       <c r="AA18" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="27:27">
+    <row r="19" ht="15.6" spans="27:27">
       <c r="AA19" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="27:27">
+    <row r="20" ht="31.2" spans="27:27">
       <c r="AA20" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="27:27">
+    <row r="21" ht="15.6" spans="27:27">
       <c r="AA21" s="18" t="s">
         <v>102</v>
       </c>
